--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/LDOTO5/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/LDOTO5/2.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aslto5.local\fileserver\Sviluppo_Software\FSE_2\PER_ACCREDITAMENTO\LDOTO5\LDOTO5\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4618C0F5-6FC8-45FF-A2EA-5D77E9100938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4AF7A9-F830-4D24-815A-183E9E9A1F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="3430" windowWidth="28750" windowHeight="15320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -765,40 +765,40 @@
     <t>L'applicativo non gestisce le seguenti section "Inquadramento_clinico_iniziale", "Complicanze", "Riscontri_accertamenti_significativi", "Consulenza", "Esami_eseguiti_durante_il_ricovero", "Procedure_eseguite_durante_ ricovero", "Allergie", "Terapia_farmacologica_effettuata_durante_ricovero", "Terapia_farmacologica_dimissione"</t>
   </si>
   <si>
-    <t>07/06/2023 06:57:14 GMT</t>
-  </si>
-  <si>
-    <t>93ca46a89363ed44</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10205.4.4.1.ae5ce162888ee3ebe974976cac5ab94a3f55049f8515884883d579fb3fa378d2.d959164357^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/06/2023 06:59:46 GMT </t>
-  </si>
-  <si>
-    <t>1596a1b1c0225a82</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10205.4.4.1.5c6bed0d94b9be8afbc5c8cac1e9d4be03f556917c2611ec56f4e6f341ef60d9.d6b924e7a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>07/06/2023 07:23:13 GMT</t>
-  </si>
-  <si>
-    <t>1d70a9d6e88d5948</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10205.4.4.1.50a9b9163ebb829080aecf9a7a5990715de9fd63d48e3ea3734f6bd77aa3df07.b2e1de527f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>07/06/2023 07:26:07 GMT</t>
-  </si>
-  <si>
-    <t>13f9433fbc37dbd1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10205.4.4.1.cfb51ebe5fc1cd1482a9a65716dad756b1374b3bc507a712e416947eeb51a058.9caff62b78^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">08/06/2023 16:35:22 GMT </t>
+  </si>
+  <si>
+    <t>510cdbda0166f842</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10205.4.4.1.ae5ce162888ee3ebe974976cac5ab94a3f55049f8515884883d579fb3fa378d2.40e29ae936^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08/06/2023 16:36:25 GMT</t>
+  </si>
+  <si>
+    <t>cb3dc2f54a3f747a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10205.4.4.1.5c6bed0d94b9be8afbc5c8cac1e9d4be03f556917c2611ec56f4e6f341ef60d9.1442ca5806^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08/06/2023 16:37:37 GMT</t>
+  </si>
+  <si>
+    <t>daa8c6dfc9ca6dc4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10205.4.4.1.50a9b9163ebb829080aecf9a7a5990715de9fd63d48e3ea3734f6bd77aa3df07.84e05027f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08/06/2023 16:38:30 GMT</t>
+  </si>
+  <si>
+    <t>8420889a46d7a260</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10205.4.4.1.cfb51ebe5fc1cd1482a9a65716dad756b1374b3bc507a712e416947eeb51a058.90d1a8ac43^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3697,10 +3697,10 @@
   <dimension ref="A1:T646"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9:I13"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3710,9 +3710,9 @@
     <col min="3" max="3" width="20.1796875" customWidth="1"/>
     <col min="4" max="4" width="39.453125" customWidth="1"/>
     <col min="5" max="5" width="104.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
     <col min="7" max="8" width="33.1796875" customWidth="1"/>
-    <col min="9" max="9" width="92.26953125" customWidth="1"/>
+    <col min="9" max="9" width="92.1796875" customWidth="1"/>
     <col min="10" max="10" width="27.1796875" customWidth="1"/>
     <col min="11" max="15" width="36.453125" customWidth="1"/>
     <col min="16" max="16" width="27.1796875" customWidth="1"/>
@@ -3973,7 +3973,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="23">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>168</v>
@@ -4019,7 +4019,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="23">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>171</v>
@@ -4065,7 +4065,7 @@
         <v>59</v>
       </c>
       <c r="F12" s="23">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>174</v>
@@ -4111,7 +4111,7 @@
         <v>61</v>
       </c>
       <c r="F13" s="23">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>177</v>
